--- a/shiping card.xlsx
+++ b/shiping card.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okrasotskyi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okrasotskyi\Desktop\Banana report (server)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05BA7DE4-610B-42CA-9621-FA8ED87EF586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77A0CC9E-F52A-4370-8310-6DEF1AABEA1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15696" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KARTA" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>RAMPA</t>
   </si>
@@ -255,98 +255,11 @@
         <charset val="238"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">                                        </t>
+      <t xml:space="preserve">                                         </t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Data/Date</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2025</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.       </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="22"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="238"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Data/Date  .       .   </t>
   </si>
 </sst>
 </file>
@@ -354,11 +267,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$zł-415]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$zł-415]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;zł&quot;_-;\-* #,##0.00\ &quot;zł&quot;_-;_-* &quot;-&quot;??\ &quot;zł&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _z_ł_-;\-* #,##0.00\ _z_ł_-;_-* &quot;-&quot;??\ _z_ł_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot; &quot;#,##0.00&quot; &quot;[$zł-415]&quot; &quot;;&quot;-&quot;#,##0.00&quot; &quot;[$zł-415]&quot; &quot;;&quot; -&quot;00&quot; &quot;[$zł-415]&quot; &quot;;&quot; &quot;@&quot; &quot;"/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="35">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -574,22 +487,6 @@
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1010,37 +907,37 @@
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -1051,10 +948,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
@@ -1065,7 +962,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1112,21 +1009,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,26 +1160,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="56">
@@ -1274,9 +1174,9 @@
     <cellStyle name="Dziesiętny 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Dziesiętny 4" xfId="43" xr:uid="{6BEC7A08-185F-4D7D-B3E2-1AB64651CB70}"/>
     <cellStyle name="Dziesiętny 5" xfId="46" xr:uid="{E934CCAA-F419-4938-83EE-896AE58E21E0}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal 23" xfId="17" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Normalny 10" xfId="24" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Normalny 10 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Normalny 10 2 2" xfId="39" xr:uid="{16453088-A952-44E2-9FD8-25E1BDB62C79}"/>
@@ -1379,7 +1279,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="1379219" y="38100"/>
-          <a:ext cx="1529715" cy="1464945"/>
+          <a:ext cx="1516380" cy="1478280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1463,9 +1363,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1503,7 +1403,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1609,7 +1509,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1765,49 +1665,51 @@
   <dimension ref="A1:I60"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A15" sqref="A15:C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.44140625" customWidth="1"/>
-    <col min="2" max="2" width="37.88671875" customWidth="1"/>
-    <col min="3" max="3" width="31.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="31.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="27" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="28"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1">
       <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:9" ht="17.25" customHeight="1">
-      <c r="G3" s="71" t="s">
+      <c r="G3" s="29" t="s">
         <v>13</v>
       </c>
       <c r="H3" s="26"/>
     </row>
-    <row r="4" spans="1:9" ht="19.8" customHeight="1" thickBot="1">
-      <c r="G4" s="72"/>
+    <row r="4" spans="1:9" ht="19.899999999999999" customHeight="1" thickBot="1">
+      <c r="G4" s="30"/>
       <c r="H4" s="27"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1">
-      <c r="G5" s="68" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H5" s="26"/>
@@ -1816,14 +1718,14 @@
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
       <c r="C6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="27"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="33" t="s">
         <v>20</v>
       </c>
       <c r="H7" s="26"/>
@@ -1834,7 +1736,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="16"/>
-      <c r="G8" s="25"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="27"/>
       <c r="I8" s="8"/>
     </row>
@@ -1849,54 +1751,54 @@
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="55"/>
-      <c r="C11" s="56"/>
-      <c r="F11" s="42" t="s">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="F11" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="43"/>
-      <c r="H11" s="44"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="A12" s="64"/>
+      <c r="B12" s="65"/>
+      <c r="C12" s="66"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="67" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="61"/>
-      <c r="C13" s="62"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="50"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="57"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A14" s="63"/>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
+      <c r="C14" s="72"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="67" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-    </row>
-    <row r="16" spans="1:9" ht="15" thickBot="1">
-      <c r="A16" s="63"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-    </row>
-    <row r="18" spans="1:8" ht="15" thickBot="1"/>
-    <row r="19" spans="1:8" ht="16.2" thickBot="1">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1">
+      <c r="A16" s="70"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="72"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1"/>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1">
       <c r="A19" s="17" t="s">
         <v>0</v>
       </c>
@@ -1904,123 +1806,123 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.399999999999999" customHeight="1" thickBot="1">
-      <c r="A20" s="45"/>
+    <row r="20" spans="1:8" ht="17.45" customHeight="1" thickBot="1">
+      <c r="A20" s="52"/>
       <c r="B20" s="18" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="19"/>
     </row>
-    <row r="21" spans="1:8" ht="15" thickBot="1">
-      <c r="A21" s="53"/>
-      <c r="B21" s="51" t="s">
+    <row r="21" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A21" s="60"/>
+      <c r="B21" s="58" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="25.2" customHeight="1" thickBot="1">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52"/>
-      <c r="F22" s="36" t="s">
+    <row r="22" spans="1:8" ht="25.15" customHeight="1" thickBot="1">
+      <c r="A22" s="55"/>
+      <c r="B22" s="59"/>
+      <c r="F22" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="38"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="45"/>
     </row>
     <row r="23" spans="1:8" ht="34.5" customHeight="1" thickBot="1">
       <c r="B23" s="3"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="41"/>
-    </row>
-    <row r="25" spans="1:8" ht="14.4" customHeight="1" thickBot="1">
+      <c r="F23" s="46"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="48"/>
+    </row>
+    <row r="25" spans="1:8" ht="14.45" customHeight="1" thickBot="1">
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:8" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="32"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="39"/>
       <c r="D26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E26" s="33" t="s">
+      <c r="E26" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="42"/>
       <c r="H26" s="12" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
+      <c r="A27" s="35"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
       <c r="H27" s="10"/>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="66"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="67"/>
-      <c r="F28" s="67"/>
-      <c r="G28" s="67"/>
+      <c r="E28" s="32"/>
+      <c r="F28" s="32"/>
+      <c r="G28" s="32"/>
       <c r="H28" s="7"/>
     </row>
     <row r="29" spans="1:8" ht="30" customHeight="1">
-      <c r="A29" s="66"/>
-      <c r="B29" s="66"/>
-      <c r="C29" s="66"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
+      <c r="E29" s="32"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
       <c r="H29" s="7"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="66"/>
-      <c r="B30" s="66"/>
-      <c r="C30" s="66"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67"/>
-      <c r="G30" s="67"/>
+      <c r="E30" s="32"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
       <c r="H30" s="7"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1">
-      <c r="A31" s="66"/>
-      <c r="B31" s="66"/>
-      <c r="C31" s="66"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="31"/>
+      <c r="C31" s="31"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
+      <c r="E31" s="32"/>
+      <c r="F31" s="32"/>
+      <c r="G31" s="32"/>
       <c r="H31" s="7"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="66"/>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="31"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
-      <c r="G32" s="67"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
       <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="66"/>
-      <c r="B33" s="66"/>
-      <c r="C33" s="66"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="31"/>
+      <c r="C33" s="31"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="32"/>
       <c r="H33" s="7"/>
     </row>
     <row r="34" spans="1:8">
@@ -2069,24 +1971,7 @@
       <c r="C60" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="E32:G32"/>
+  <mergeCells count="33">
     <mergeCell ref="G7:G8"/>
     <mergeCell ref="H7:H8"/>
     <mergeCell ref="A27:C27"/>
@@ -2102,6 +1987,24 @@
     <mergeCell ref="A11:C12"/>
     <mergeCell ref="A13:C14"/>
     <mergeCell ref="A15:C16"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:H1"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.19685039370078741" bottom="0.74803149606299213" header="0.15748031496062992" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="54" orientation="portrait" r:id="rId1"/>
